--- a/500all/speech_level/speeches_CHRG-114hhrg94807.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94807.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order.    Without objection, the Chair is authorized to declare recesses of the Committee at any time. We welcome everyone to today's hearing on Nexus Issues: Legislative Hearing on H.R. 2315, the ``Mobile Workforce State Income Tax Simplification Act of 2015;'' H.R. 1643, the `Digital Goods and Services Tax Fairness Act of 2015;'' and H.R. 2584, the ``Business Activity Tax Simplification Act of 2015.''    I will now recognize myself for an opening statement.    I came to Congress with certain core principles that guide my work in Washington. One is that we should aim for less government regulation not more. That is why we are pleased to hold this legislative hearing. With all the focus on Washington, it is easy to forget the burdens that can flow from state capitals. That is especially true when discussing taxation of interstate commerce.    I am a staunch supporter of states' rights in the principles of federalism, but I believe states should be sovereign within their borders only. I have become concerned when states trying to tax or regulate beyond their borders. Unfortunately, this is happening with greater regularity and it has necessitated the three bills we are examining at this hearing.    Today, employees who travel across state lines for work face a myriad of crushing income tax laws. This is true even if they work in the state for just a single day. The complexity and variation of different state laws places a significant burden on the ability of businesses to deploy their workforces. Small businesses, in particular, are especially effected.    It is also draining on the employees who must hire accountants, at their own expense, to handle the paperwork for multiple state tax jurisdictions. The Mobile Workforce State Income Tax Simplification Act of 2015 addresses this problem. It creates a bright line, 30-day threshold before a state can impose income tax liability on a nonresident temporarily working in the state. This minimizes compliance burdens on both workers and employers so they can get back to work.    Just as states target nonresident workers for taxation, they also target nonresident businesses. An increasing number of states used the concept of economic presence to subject nonresident companies to state income tax simply because those companies have customers in the state. For example, New Jersey has impounded trucks delivering boats to customers in New Jersey, because the state demands that out-of-state manufacturers pay income tax to New Jersey. Similarly, Massachusetts demands income tax from out-of-state businesses if they deliver trucks which carry through the state on their own way to businesses from elsewhere.    The Business Activity Tax Simplification Act, known as BATSA, requires an entity to be physically present in the state for more than 14 days in a year because it can be subject to state's business activity tax. It also sets a clear guideline on what constitutes a physical presence in order to reduce uncertainty.    The third bill before us is H.R. 1643, the ``Digital Goods and Services Tax Fairness Act of 2015.'' This sets forth the purchase of digital goods and services to prevent multiple taxation of cross border sales.    Every one of these bills is bipartisan. It is a testament to the soundness of their policies. I also commend the sponsors of these bills, many of whom serve on the Judiciary Committee. I note particularly Mr. Bishop, Ranking Member Johnson, and Mr. Cicilline, who are original cosponsors of the Mobile Workforce bill.    I look forward to hearing from our distinguished panel of witnesses.    It is now my pleasure to recognize the Ranking Member of the Subcommittee on Regulatory Reform, Commercial and Antitrust Law, Mr. Johnson of Georgia, for his opening statement.</t>
   </si>
   <si>
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    Today's legislative hearing is an opportunity to consider three pieces of legislation that would address the divergent patchwork of state laws enforcing various tax issues. The Mobile Workforce State Income Tax Simplification Act is an important bipartisan bill that will help workers across the country and it will also help small and multistate businesses.    Having introduced this bill in both the 110th and 111th Congresses, I am very familiar with this issue. I was pleased to have introduced the bill in the last two Congresses with our esteemed former colleague from North Carolina, Howard Coble, and I welcome my colleague Congressman Bishop's leadership on this bill. And I look forward to working together on this legislation.    H.R. 2315 provides for a uniform and easily administrable law that will simplify the patchwork of existing inconsistent and confusing state rules. It would also reduce administrative cost to states and lessen the compliance burdens on consumers. I urge that the Committee move this bill promptly so that it can come to the floor for a vote soon. This country's employees and businesses deserve quick action.    Turning to H.R. 2584, the ``Business Activity Tax Simplification Act of 2015.'' This legislation would establish a physical presence standard which must be met before states can impose a business activity tax. While proponents of this legislation contend that businesses need more certainty in determining what activities are taxable and that a uniform standard would provide that, others have argued that states should determine what activities are taxed within their borders and that a physical presence standard created in this bill would invite tax evasion.    Although I have supported similar legislation in the past, I have grown concerned that this bill would prove too costly to states. The Congressional Budget Office reported that a substantively identical predecessor of this bill would cost about $2 billion in the first full year after enactment and that at least that amount in subsequent years. We should study whether there are alternative methods which accomplish the same goal of providing more certainty for businesses while minimizing any impact on our state and local governments, or perhaps revise the bill's language to dampen its affect on state revenues.    Lastly, H.R. 1643, the ``Digital Goods and Services Tax Fairness Act of 2015'' would prohibit state and local governments from imposing discriminatory and multiple taxation of digital goods and services and also establish a tax sourcing framework for the sale or use of digital goods and services. I have long supported this bill which will promote innovation in sales through a national framework for digital purchases.    In closing, although I welcome today's hearing, I also look forward to this Committee addressing the remote sales tax issue. As a strong supporter of a level playing field, I have long supported the Marketplace Fairness Act. Despite my preference for a legislative hearing on that bill, I welcome any movement toward addressing the remote sales tax issue.    And with that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -73,27 +67,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    Good morning and welcome to all of our witnesses.    The unifying theme of this legislative hearing is ``No Regulation Without Representation.''    For much of American history, state's cross-border reach was strictly limited. Until about 1950, states could not tax interstate commerce at all. Courts then began to relax the rules. In 1977, the Supreme Court held that states may tax interstate commerce if there is a ``substantial nexus'' to the taxing state.    In the context of sales taxes, ``substantial nexus'' means a seller is physically present in the jurisdiction. The Court, however, has never clarified whether the physical presence rule applies to certain other impositions, such as business activity taxes.    Accordingly, states are increasingly exploiting the gray area in the law to tax and regulate beyond their borders. For example, California is now requiring that out-of-state farmers who want to sell eggs in California comply with California cage-size requirements which are twice the industry standard. The Alabama Attorney General described the new law as ``California's attempt to protect its economy from its own job-killing laws by extending those laws to everyone else in the country.''    This is precisely the sort of protectionism that the commerce clause is intended to prevent. It also highlights one of the most pernicious aspects of states taxing and regulating beyond their borders. It permits lawmakers to dodge accountability for the burdens associated with their policy choices by shifting them onto nonresidents who cannot hold them accountable at the ballot box.    Indeed, this Subcommittee heard testimony in 2014 that, if Congress lets ``economic presence'' rather than ``physical presence'' becomes the standard, states will mostly exempt resident companies from tax obligations while imposing them on out-of-state companies. That is why I am so pleased that Chairman Marino is holding this hearing.    The Business Activity Tax Simplification Act restores physical presence, defined as presence for more than 14 days, as a prerequisite to a state imposing business activity taxes. Similarly, the Mobile Workforce Tax Simplification Act prevents states from imposing income tax compliance burdens on nonresidents who work in the state for less than 30 days a year.    Critics raise concerns about state sovereignty and revenue loss to the states. But a study of the Mobile Workforce bill found it would have a de minimis impact on state revenues. In addition, those objections proceed from the incorrect premise that ``economic nexus,'' rather than ``physical presence,'' is the appropriate touchtone for determining whether a state has the authority to tax. In other words, these bills do not deprive the states of anything to which they have a clear claim.    Also, before the Committee is the Digital Goods and Services Tax Fairness Act of 2015. It sets sourcing rules for the purchase of digital goods and services. These rules will help implement the Permanent Internet Tax Freedom Act's ban on multiple taxes of Internet commerce. This ban expires October 1, of this year and the Committee will soon move to renew it.    The Committee is also eager to proceed with legislation that levels the playing field between traditional and online retailers without letting states tax and regulate beyond their borders. Productive discussions continue.    These are important issues, and I look forward to the witnesses' testimony.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Chairman.    It is now my pleasure to recognize the Judiciary Committee Ranking Member, Mr. Conyers of Michigan, for his opening statement.</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Marino and the Members of the Committee, and the distinguished witnesses with us today; as well as those that are interested enough to come to the hearing itself.    Today's hearing focuses on three bills dealing with the issue of state taxes. And as we consider them, there are several points that I would like to present.    This Committee should first focus on establishing without further delay a national framework that will empower the states to enforce collection by remote sellers. Unfortunately, none of the bills that are the subject of today's hearings address the remote sales tax dilemma states are currently facing. More than two decades ago, the Supreme Court recognized, in the 1992 Quill decision, that Congress is best suited to determine whether a remote seller must collect taxes, sales taxes. Yet, Congress has failed to make that critical determination.    Although Congress has considered various legislative proposals, including during the last Congress when the Senate overwhelmingly passed the Marketplace Fairness Act, the House has not taken any meaningful action beyond holding hearings. We owe it to our local communities, our local retailers, and state and local governments to act this Congress. Otherwise, our local retailers will continue to be at a competitive disadvantage and our state and local governments will continue to lose critical tax revenues as a result of remote sellers not collecting and remitting sales taxes.    Lost tax revenues mean that state and local governments will have fewer resources to provide their residents essential services; such as education and police and fire protection. Uncollected sales taxes mean fewer purchases at local retailers which translate to fewer local jobs. The unfair advantage that remote sellers have by not collecting sales taxes hurts us all. Congress should not delay any further and it should work to pass bipartisan legislation. I welcome the opportunity to work with the Chair on moving legislation this Congress on remote sales tax issues.    Now, as to H.R. 2315, the ``Mobile Workforce State Income Tax Simplification Act of 2015,'' and H.R. 1643, the ``Digital Goods and Services Tax Fairness Act of 2015,'' both of these measures, although improved over several Congresses, still fail to address the needs of all stakeholders. Even though H.R. 2315 incorporates much needed improvements reflecting important input from the state governments and the business community, the bill still requires further revisions to eliminate its adverse impact on state revenues.    For example, if the bill were enacted as introduced New York would lose upwards of $100 million in revenue. Chairman Schumer will take note of that, I am sure. Similarly, the sponsors of H.R. 1643 must work with the state and local governments to draft language all parties can find agreeable.    Ms. Magee and Mr. Crippen likely will have suggestions to address the state and local government's concerns with both of the bills.    And finally, H.R. 2584, the ``Business Activity Tax Simplification Act of 2015,'' is thoroughly flawed legislation especially in light of the fact that it overrides the authority of states to determine how and what they tax within their own borders. The bill upends long-settled state tax practices by implementing a standard falsely based on physical presence and by including loopholes that make such a standard meaningless for state governments.    The bill favors big multistate corporations at the expense of small and local businesses. It encourages tax evasion by creating opportunities for nationwide businesses to structure corporate affiliates and transactions to avoid paying their fair share of local taxes.    The bill prevents states from imposing business activity taxes on businesses which have less than 15 days of physical presence within the state. This will shift the state corporate income tax burden onto local small businesses, manufacturers, and service providers; in other words, the types of businesses that pay local property and payroll taxes. And the measure will eviscerate state revenues with respect to nearly identical legislation considered several years ago.    The Congressional Budget Office estimated that it would reduce state revenues by about $2 billion in the first full year following enactment and at least that amount in subsequent years and that it would generate even greater future state tax revenue losses as corporations avail themselves of the bill's virtually unenforceable standard and vast loopholes. We should not be forcing upon the states a $2 billion decrease in their tax revenues. Accordingly, I urge my colleagues to seriously consider scrapping the Business Activity Tax Simplification Act and let us start all over again.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you.    Without objection, all the Member's opening statement will be made part of the record.    We have a very distinguished panel with us today, and I will begin by swearing in our witnesses before introducing them.    So would you please rise and raise your right hand please?    Do you swear that the testimony you are about to give is the truth, the whole truth, and nothing but the truth so help you God?    Let the record reflect that the witnesses have responded in the affirmative.    Thank you. Please be seated.    I will introduce the witnesses for today. Grover Norquist is President of Americans for Tax Reform, ATR; a taxpayer advocacy group he founded in 1985. ATR works to limit the size and cost of government and opposes higher taxes at the Federal, state, and local levels. It supports tax reform that moves toward taxing consumed income one time at one rate. Mr. Norquist serves on the board of several organizations and has served in many capacities and has served, also, in government capacity as well; such as the Advisory Commission on Electronic Commerce and as commissioner for the National Commission on Restructuring the IRS. Mr. Norquist holds both an undergraduate degree in economics as well as an MBA from Harvard University.    Welcome, Mr. Norquist.</t>
   </si>
   <si>
-    <t>Norquist</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Norquist. Thank you very much.</t>
   </si>
   <si>
@@ -106,45 +91,30 @@
     <t xml:space="preserve">    Mr. Marino. Thank you.    The Chair now recognizes Mr. Rosen.                   McDERMOTT WILL &amp; EMERY LLP</t>
   </si>
   <si>
-    <t>Rosen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rosen. Mr. Chairman, Members of the Committee, BATSA, H.R. 2584, addresses a major problem facing American businesses today, and that is states imposing tax on businesses that aren't in the state. In effect, states are taxing activities that occur outside their borders. States have taken two avenues to achieve that goal. One is to assert the concept of economic nexus and the other is to try to get around a Federal law enacted in 1959 and that is Public Law 86-272. Economic nexus is the assertion by a state that if an out-of-state business has customers within its borders, then that state has a right to impose tax on the out-of-state business.    P.L. 86-272, the 1959 law, was supposed to be a temporary law. And the Willis Commission was impaneled by Congress to look at this issue. And the Willis Commission came out with a report that said states should have a physical presence requirement and also states should have their apportionment in a uniform manner around the country. While neither has happened, states have gone in the opposite direction. So the need for that law is even greater today than it was in 1959.    Now, BATSA addresses the economic nexus argument, as you've heard, by establishing a physical presence test. A company must have employees or property in the state for more than 14 days during the year before the state may impose its direct tax on that business. Also, 86-272 would be modernized to meet the new economy.    Now, those who support BATSA do so for the following reasons. Those people believe that tax should be paid to jurisdictions that are furnishing benefits and protections to a taxpayer, not to somebody outside. And states respond by saying, ``Well, we're maintaining a marketplace for you, out-of-state seller. We're maintaining a civilized society so you can sell to our people. Therefore, you should pay us for that.''    But I would hope, and I think everybody here would hope, that elected officials do things for people within their borders; their constituents. They're not maintaining a market for outside businesses. People in the state get those benefits.    Another reason that physical presence is correct is because income should be taxed where earned. We all know that income is earned where labor and capital is employed. If you were to work at home, suppose you telecommute or you have a consulting business in your home in Virginia, and you work very hard, you buy some equipment that you use for word processing and research, and you find a customer in Utah or you're telecommuting your employer is in Utah, you work every day in Virginia. Where do you earn your income? Where your customer is? In Utah? Of course not. You earn your income where you expend your labor and your capital.    So when states say, ``Well, markets are important. There's no sale, there's no profit.''    That sounds nice, a nice sound byte. But you really earn your income where you expend your labor and your capital.    Next, BATSA would help American businesses compete against foreign businesses. That's because, as a practical matter, states have no way of enforcing economic nexus against companies that have no presence in the United States. We've seen a couple of states pull back from even attempting to tax foreign businesses while they continue their attack on American businesses.    Next, the United States and every other country that has entered into a tax treaty in the world has this idea of a permanent establishment in there. And that is similar to what BATSA does, but BATSA is much more generous to the taxing officials than even the treaty permanent establishment concept is.    Now, those who are generally against this is executive branch of state governments. The NCSL has not voiced any opposition. As a matter of fact, the NCSL several years ago passed a resolution supporting the principles in BATSA. So the executive branch has a lot of complaints. They say, first of all, current law allows us to tax out-of-state businesses. Well, that's not exactly true.    The U.S. Supreme Court has never ruled on this case; has never looked at the commerce clause issues. It denied my cert petition in MBNA; the following year, it denied a cert petition in Cap One. A court has probably been at Congress to decide how to regulate this area. This is not Federal intrusion. This is what interstate commerce is all about. That's why we have a Constitution instead of the Articles of Confederation, to make sure we have one economy, that states do not set up barriers. And so this is Congress' role to regulate interstate commerce, to make sure that tax is done correct.    People say this tool could be used for tax sheltering, tax avoidance, tax shifting. The bill has a specific provision that prevents companies from doing that, it gives states all the rights they have to fight tax shams and close down loopholes.    Finally, a question was raised: Where is this cost going to come from if, in fact, this is cost $2 billion to the states if BATSA were enacted? Well, an independent study showed that this was less than 5 percent of total business tax collections that states get. Second, maybe the taxes should come from businesses and people in the jurisdiction that are receiving the benefits and protections of that government.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, sir.    Mr. Lindholm?</t>
   </si>
   <si>
-    <t>Lindholm</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lindholm. Thank you, Chairman Marino, Ranking Member Johnson, and Members of the Committee.    My name is Doug Lindholm. I'm the President, Executive Director of the Council on State Taxation, also known as COST. I am here today representing COST and the 275-member Mobile Workforce Coalition in favor of H.R. 2315.    First, I'd like to thank Congressman Bishop and Ranking Member Johnson for introducing that legislation this year. This is the ninth year that we've been working on this issue, and Congressman Johnson has been with us from the get-go. And I thank you, sir, for your leadership on this issue.    The issue is how to simplify the patchwork of state personal income tax laws that face any employee who travels for work across state borders and, two, their employers who also have an associated withholding requirement on that income. Every day, hundreds of thousands of employees across the U.S. are sent by their employers to work in states where they don't reside. Most of these trips are temporary in nature. That is, you leave your resident state, you go to a nonresident state, and you're back to your resident state.    Currently, every state has that has a personal income tax has different rules for when an employee, one, has to file a personal income tax and, two, when their employers has to withhold on that income for the state.    Exhibit B, in my testimony, has a very instructive map that shows you the variation across the states. And this doesn't just affect business either. It affects all employees and employers, private sector and public sector alike. It affects all businesses large and small, it affects non-profit organizations, unions, teachers, state employees, the utility crews that come from neighboring states to help get the lights back on after a natural disaster. They can trigger this personal income tax filing requirement. And let me tell you, they have a lot more to think about than filing a nonresident return. It even applies to Departments of Revenue and Congressional staffers.    There is precedent for this legislation in this body. Congress has already recognized and protected from this patchwork of state laws. Industries that are highly mobile; Merchant Mariners, railroad workers, airline workers, motor carrier employers, members of the military, groups that are highly mobile are protected from this patchwork by Congress. Remember, this issue affects all employees who travel for work and creates a huge administration and compliance burden that is absolutely unnecessary.    The solution in H.R. 2315 is a pragmatic, effective solution to this problem. It just provides a 30-day threshold for temporary work assignments and until that 30 days is met, the employee remains fully taxable in his or her resident state.    Now, admittedly there is currently widespread non-compliance in this area. But the truth is nobody could live with full compliance. State Departments of Revenue would be absolutely overwhelmed by this small dollar returns if everybody was in full compliance here. And since the majority of business trips in the country today are less than 30 days, if this bill were enacted, instantly hundreds of thousands of traveling employees would be brought into compliance and they would not have to do a thing.    Now, what is untenable about the current situation is that if a state does start looking around and find a noncompliance in this area, it raises the specter or the perception of selective enforcement. And when you have selective enforcement, it tends to undermine the faith and credibility of our entire tax system. It is entirely appropriate that Congress act here. This is an administrative fix to a very different problem, one that cannot be fixed by the states themselves because of the out-of-state component here.    I want to commend the Multistate Tax Commission. They have developed a model act of their own and we helped them. It was adopted in 2011, but since then only one state, North Dakota, has adopted it. And it's only effective unless other state win-win and with other states adopted. And it is because this needs concerted effort to resolve this problem that this body is the only body that can take action.    One issue, you know, I am happy to take question on the specifics of the bill. One part of the bill I'd like to elaborate on, and that is the fact that the employer can rely on the employee's determination of time spent in nonresident state. For that purpose, that's only for purposes of levying penalties. The amount of withholding is still based on the actual time of the state. I think there has been some misunderstanding of that in the past that has been changed and corrected.    One other aspect, the bill does not cover professional athletes, professional entertainers, and certain public figures of national prominence who are paid on a per event basis. This Committee passed this legislation nearly identical on voice vote during the 112th Congress. We respectfully ask, on behalf of COST and the coalition, to support the speedy adoption of     Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you.    The Chair now recognizes Mr. Leaman.</t>
   </si>
   <si>
-    <t>Leaman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Leaman. Mr. Chairman, Ranking Member Johnson, and Congressman Bishop, I'd like to thank you for the opportunity to testify today on behalf of H.R. 2315. As the vice president of Taxes for Masco Corporation, which is the member of the coalition, we have been active members of the coalition primarily to see enactment to this legislation through enactment. And I'm here today to testify to be able participate in a rare opportunity to move truly widespread bipartisan legislation through the Congress.    Masco Corporation is headquartered in Taylor, Michigan. It's one of the largest manufacturers of brand-name products for the home construction industry and remodeling. We have Delta Faucets, Behr Paint, KraftMaid and Merillat Cabinets, Milgard Windows, Caldera Hot Spring and Spas; as well as we install products for the home, as well as install insulation in the new home construction market. Our workforce includes many employees that travel across state lines that which include our sales force; which includes installers for cabinets, installers of insulation, as well as employees who provide support to the big boxes, in particular Home Depot and Lowes.    We have a workforce of over 23,000 people in the United States. I would say at least 40 percent of those employees would qualify as mobile workers. Therefore, a large portion of our workforce we had have to track.    We have a tremendous representation from the subcommittee of our employee base. Chairman Marino's district in Sayre, Pennsylvania has over 700 employees with Masco cabinetry. The 560 employees in Vista, California of Congressman Issa's district. We have a BrassCraft headquartered in Novi, Michigan, Representative Trott's district. And we have over a thousand individuals employed in the State of Washington State, of Congresswoman DelBene.    The problem. You know, Masco Corporation as most large corporation make every effort to comply with tax laws and regulations. And it's a tremendous burden and it takes tremendous resources for us to accomplish that. Masco has a long history of being transparent in working with taxing authorities in a way to move forward the process.    The management of the workforce that we're referring to today does not come under my responsibility. You know, marketing, HR, sales, but oftentimes I'm consulted because of the tax matters that they're faced with. People often ask me what am I faced--what keep me up at night and Sarbanes-Oxley, which is effectively referred to as Sox is one of my, you know, biggest concerns. And when you look at the administration of a workforce, 40 percent where they are traveling across state lines, you know I'm never assured of the fact of when a problem might arise that cause me Sarbanes-Oxley's issues.    Just to give you a couple of examples of what we're faced with, you know, we have, as I indicated, a workforce that travels across state lines. And when we take an example of our installation service group, we have 7,000 employees that work in that group and, yet, we file 10,500 W-2s on behalf of that workforce primarily attributable to the fact that these individuals cross state lines.    Another issue, albeit an extreme example, but we had one individual who, because of crossing state lines and moving into different municipalities in one given year, had 50 W-2s. So if you can envision an individual who makes something less than $50,000 a year and at the end of the year is faced with filing his tax return, it's undaunting. And to highlight that issue, he would be or others required to go out and hire tax professionals at a cost that oftentimes they cannot afford. And yet, it's not uncommon. It's quite frequent that we receive calls from these CPA's, tax professionals, asking us, in terms of how to administer these tax laws and what opportunities might we be able to do to mitigate the costs to these individuals.    So as we've talked about, this is a tremendous administrative burden on both not just the employer but on the employee as well.    And again, referring to the simplicity of, I think, the tax legislation that we're putting forth, it's an administrative fix where we are not doing anything to adjust or deflect the proper tax reporting of income. It's merely administratively expedient on behalf of all parties whether it is the corporations, individuals, government taxing authorities, it's a relief. So I'm here to encourage the Subcommittee to report this out to the full Congress.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you.    Mr. Carpenter?</t>
   </si>
   <si>
-    <t>Carpenter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carpenter. Chairman Marino, Ranking Member Johnson, and Members of the Subcommittee, thank you very much for the opportunity to testify in support of the Digital Goods and Services Tax Fairness Act. My name is Jot Carpenter and I serve as vice president of Government Affairs for CTIA, the Wireless Association, though I'm here today on behalf of the Download Fairness Coalition. CTIA is a member of the DFC, a group of 29 companies and organizations whose unifying principle is the belief that the Internet economy requires a consistent national framework to guide the way that states and localities exercise their right to tax digital products and services.    That consistent national framework is embodied in H.R. 1643, sponsored by your colleagues Lamar Smith and Steve Cohen, whom we thank for their leadership and commitment to addressing our concerns. The Smith-Cohen bill achieves the objective we seek while embodying basic principles of fairness for consumers and those like CTIA's members that effectively service the agents of the states. All while avoiding the imposition of any new taxes and respecting each state's determination on how or if to tax digital products. It is framework that only Congress can enact to provide the certainty, stability, and safeguards needed to keep the digital economy a thriving part of our overall economy.    At its core, the bill seeks to achieve two equally important objectives. First, it seeks to preclude multiple jurisdictions from claiming the right to tax the same transaction by clearly assigning one jurisdiction, the customer's home jurisdiction, the authority to impose taxes on digital goods. Second, it seeks to preclude discriminatory taxation of such commerce to ensure that digital goods are taxes at the same rates and under the same rules that apply to physical goods.    Now, with respect to the first of these objectives, H.R. 1643 draws upon the successful model that this Committee created 15 years ago for wireless and voice services. The Mobile Telecommunications Sourcing Act established a successful national framework to guide how state and local jurisdictions may tax wireless voice services eliminating the chance of double taxation while simplifying carrier administration and end user bills.    The MTSA has proven durable and effective, and it offers a fine model for how digital products should be treated. But as was the case with wireless voice 15 years ago, Congressional action is needed because the states and localities have neither the ability nor the Constitutional authority to create the necessary framework on their own.    With respect to the second of our objectives, H.R. 1643 establishes the simple principle that digital goods should not be subject to discriminatory taxation. The discriminatory taxation of communication services and digital commerce has been widely acknowledged as problematic since the Advisory Commission on Electronic Commerce, on which Grover served, delivered its report during the Clinton administration and increasingly the digital nature of our economy demands a solution to this inequity.    There is no reason why this summer's beach reading should be taxed differently if it is downloaded to a Kindle or a tablet that if it is purchased in paperback at the local drug store. And H.R. 1643 will ensure that digital and physical goods are subject to the same treatment. While it is proper to leave to the states the decision about whether and at what level to tax these goods, it is a completely reasonable exercise of Congressional authority to prevent discrimination among them.    The important nondiscrimination provisions of H.R. 1643 also complement other bills before the Committee; such as the Goodlatte-Eshoo Permanent Internet Tax Freedom Act and the forthcoming Lofgren-Franks Wireless Tax Fairness Act. H.R. 1643 and those bills will move us away from a tax system designed for the long-passed days of Ma Bell and instead align our telecom system with the age of the smartphone and mobile broadband. Today's information economy deserves no less.    Mr. Chairman and Members of the Subcommittee, thank for this opportunity to testify in support of H.R. 1643. I hope the Committee and the House will approve the bill at the earliest possible date.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, sir.    The Chair now recognizes Commissioner Magee.</t>
   </si>
   <si>
-    <t>Magee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Magee. Good morning.    Thank you, Chairman Marino and Ranking Member Conyers and Members of the Subcommittee. My name is Julie Magee and I am the Alabama Commissioner of Revenue. I am also the chair of the Multistate Tax Commission, as well as secretary of the Board of Trustees for the Federation of Tax Administrators. And it is in my capacity in these organizations today that I'm here. On behalf of them and all of the states that participate, I would like to say we greatly appreciate this opportunity and hope that our testimony here, which is provided in more detail in written form, is helpful.    The Subcommittee is considering legislation that would have a substantial impact on state taxing systems, tax administration, and enforcement. We realize there are always going to be those who would like Congress to regulate state taxation. That is why we appreciate the fact that this Committee and Congress in general has been very cautious over the years in responding to these calls for Federal involvement.    I just want to briefly point out the most critical problems these bills present. That obviously means that I will be focusing on the negatives, and I apologize. But we hope that it helps this Committee understand why we oppose these bills.    First, let me address the Mobile Workforce State Income Tax Fairness and Simplification Act. This bill restricts state imposition of income state and tax withholding on wages for nonresident employees working in the states. Just like every major country that has an income tax including this one, states impose income tax on nonresidents. Those nonresidents then get to take a credit against taxes imposed by their home country or state. This bill would prevent states from taxing any employee that is in the state for less than 6 weeks regardless of how much that employee makes. This bill also essentially makes employer withholding and recordkeeping voluntary for many nonresident workers.    For my role as a tax administrator and any other tax commissioner will tell you, including the head of the IRS, that having employers withhold taxes on wages and keep records is the key mechanism to making our income tax system function. We understand that it wouldn't be reasonable to require withholding for nonresident employees who are only in a state for a few days during the year. That's why revenue departments rarely, if ever, make an issue out of it.    At the Multistate Tax Commission, we recognize that there was a potential issue for some employers and we developed a model law which we have recommended to the states. It would impose a 20-day threshold, would not apply to high wage employees, would require employer recordkeeping, but would not require withholding for less than 20 days. And we've said this publically many times before. We would be happy to join hands with industry and go to our state legislatures and get this model law enacted.    The second bill I want to address is the Digital Goods and Services Tax Fairness Act. This bill is very complex and has been studied by our organization and others. As for the special protections in this bill, I would just note that states have not taxed digital goods and services more than other products. If anything, they've taxed them much less. But, more important is the effect of the sourcing rules. Congress has imposed a uniform sourcing rule on a state sales tax once before and the area of mobile telecommunication services called the Mobile Telecommunications Sourcing Act.    Both that act and this bill basically say that only one state can tax the sale of something; generally the destination state. But unlike the Mobile Telecom Act, this bill does not grant the destination state the authority to require collection of the tax from a seller that doesn't have physical presence in the state. And as you know, that the states can't collect tax from remote sellers like Internet sellers has become a huge problem for the states.    If the bill prevents the origin state from taxing the sale and doesn't grant the destination state the authority to do so, then most sales of digital products will escape any tax.    Finally, and most importantly, I want to express our deep concerns for the Business Activity Tax Simplification Act. This bill has been around a long time. And as you know, the National Governors Association has said that the CBO's office estimate of the physical impact on the states which could be $2 to $3 billion for the first year is just the tip of the iceberg. No state that imposes a business or corporate income tax doubts that they will see substantial erosion of the tax base if this bill were to be enacted.    This bill creates a tax-free zone for big, multistate, multinational companies and allows them to use tax strategies to shift income as to avoid state taxes all together. What this means is that mostly smaller, domestic, local businesses that can't lower their taxes by engaging in income shifting will ultimately be at a disadvantage. And from an administrative standpoint, it also means the states are at a disadvantage because the main problems of enforcement in the business tax area are coming up in the context of these big multinational entities which have great resources to engage in tax planning and are located at other parts of the country or the world.    As with the Mobile Workforce bill, the commission is also recognized that there could be an issue here, especially for the smaller businesses. So again, the commission has proposed a solution in the form of a model act that creates a responsibility file only when a business exceeds a certain amount of sales into the state. A few states have enacted this model already. Tennessee did so most recently.    Again, we'll be more than happy to go to the state legislatures and promote this legislation.    Yes, sir.</t>
   </si>
   <si>
@@ -157,9 +127,6 @@
     <t xml:space="preserve">    Mr. Marino. Mr. Crippen?</t>
   </si>
   <si>
-    <t>Crippen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Crippen. Chairman Marino, Ranking Member, so I hear is Mr. Johnson, Members of the Subcommittee; I am pleased to appear on behalf of the National Governors Association.    Mr. Chairman, I want to begin with----</t>
   </si>
   <si>
@@ -409,9 +376,6 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you, Mr. Chairman.    Every once in a while, we get an opportunity here to quote something and, in this case, I guess I will paraphrase. It does seem like it is Groundhog Day again. And although, those who remember that movie realize that, you know, we keep coming back, we keep having the same discussion, the panel does change, some of you age, others do not. [Laughter.]    Grover, you can take it any way you want on that one. [Laughter.]    So, since we are here again, I am going to try and take a different tack than I did perhaps the last seven or eight times we had a similar hearing on fairness and Constitutionality, and so on. And ask my question briefly and really intended for the public to make sure that the American people get more comfortably with the approaches that Congress is taking.    And Mr. Carpenter, I will probably use you as the Constitutional Strawman. That will make Chris Cox happy.    But, Mr. Crippen, I think you did a good job of it too.    Sales tax is owed by whom?</t>
   </si>
   <si>
@@ -478,9 +442,6 @@
     <t>412505</t>
   </si>
   <si>
-    <t>Suzan K. DelBene</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Mr. Chair. And thanks to all of you for being with us today. I am very happy that we, as a Committee, are taking up state tax issues. In many areas of the law, the digital age has created new complexities and definitely at times illogical results where the law hasn't kept up with the pace of technology or the ways we purchase or live and do business. However, as someone who has a career in business, in technology, and a former revenue director for the State of Washington, I can tell you that from both perspectives some of the bills we are discussing today seem to be misguided.    The physical presence standard in BATSA, for example, would favor large businesses that have a limited physical presence, but a huge volume of economic activity within an individual state. Meanwhile, shifting the state corporate tax burden to main street small businesses along with manufacturing, national resources, and service industries, businesses that create local jobs and pay local property taxes. It is easy to envision an environment under BATSA where the big guys are planning around and avoiding local taxes all the while reaping the benefits of doing businesses in states across the country.    Meanwhile, small businesses that are paying for the benefits for doing business in any given state are put at a competitive disadvantage. And this critical point goes to marketplace fairness, which we have been talking about or the online sales tax issue, which really boils down to ensuring brick and mortar stores that make up the fiber of our communities aren't penalized or put on an unequal playing field without a state online retailers.    I know we've talked about this a bit and, Commissioner Magee, I wondered if you could tell us the economic impacts this not passing legislation like marketplace fairness has on your state? And I also would like you to highlight what that means to local jurisdictions because we talked about state revenues but this is primary revenue source for local jurisdictions that I think is important we highlight the impact there.</t>
   </si>
   <si>
@@ -508,9 +469,6 @@
     <t>412635</t>
   </si>
   <si>
-    <t>Mike Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chair.    Thank you to the panel. I greatly appreciate your time and testimony today.    I am very interested in this area of public policy, having come from small business myself, having seen the stifling effects of regulation on small business in particular. This particular bill, H.R. 2315, the Mobile Workforce bill, addresses the concern that I think is consistent with what we are seeing today with the global workforce and in a way in which we deploy our employees across this country. In many cases, we do it without a real understanding of just how well-traveled our employees are and we have to do whatever we can to ensure that we follow and track our employees, which is an added burden.    I am very interested to hear, and I guess I would like to direct this to Mr. Leaman, we have heard today a discussion that suggests that business is almost the enemy of government. We have heard words like ``evade'' and ``avoid'' tax liability. To me, as a business owner, I am aghast at such a thought, that somehow I have to defend myself from this suggestion that I am liable in some way, shape, or form and my business is in a position to have to respond to that.    A business like Masco, to what extent do you dedicate resources to address these issues when a taxing entity comes in on an audit or some kind of inquiry? What resources do you put forward to have to deal with that to ensure that you can avoid and evade compliant with whatever law there is? Is there uniformity to the way in which they approach this process? I know you have the CAP program in your company, can you explain to us the resources dedicated to what you do?</t>
   </si>
   <si>
@@ -538,9 +496,6 @@
     <t>412561</t>
   </si>
   <si>
-    <t>Hakeem S. Jeffries</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Mr. Chair.    And I also want to thank the panelists for your presence here today and for the information that you have communicated.    If I could just start with Mr. Norquist, and I thank you for you presence and for the work that you have done in the area of tax equity. We may not always agree on your particular positions but your contribution to the public square has been notable and significant. So I thank you for that.    I wanted to ask about this concept that I think exists among some in the tax equity space, which is that there is this notion that there are donors and there are takers in the tax context. Is that a framework that some people use in the tax equity space?</t>
   </si>
   <si>
@@ -589,9 +544,6 @@
     <t>412653</t>
   </si>
   <si>
-    <t>John Ratcliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman. Thanks for holding this hearing today. I appreciate all the witnesses being here. I think it has been a very good hearing and discussion about many of the inequities that our current tax system has that is frankly resulting in taxation without representation.    Mr. Lindholm, I would like to start with you. In your written testimony, you discussed the disproportionate costs of the current system on folks who live in states with no personal income tax like the 700,000 Texans that I represent. And I agree with you.    Many of my constituents are severely impacted under the current structure. They have to deal with enormous compliance costs and can't file for refunds or credits in other states. But, some of my colleagues here are still arguing that the Mobile Workforce Act isn't necessary because states offer these offsetting credits for income taxes paid in other jurisdictions.    So my question is: Can you talk about whether or not these offsetting credits do anything to solve the problem of a filing burden for employees and employers?</t>
   </si>
   <si>
@@ -640,9 +592,6 @@
     <t>412636</t>
   </si>
   <si>
-    <t>David A. Trott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Mr. Chairman.    I want to thank all the witnesses today for being here.    And Commissioner Magee, a couple questions. So you opposed H.R. 2315, correct?</t>
   </si>
   <si>
@@ -716,9 +665,6 @@
   </si>
   <si>
     <t>412531</t>
-  </si>
-  <si>
-    <t>Doug Collins</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. I appreciate that and Mr. Norquist, you know. As an old Baptist pastor, I am used to people getting up and walking out whenever they feel like it. So, you know, if you need to, God bless you. Have a great day. You know?    I want echo what my friend from California just said a few minutes ago. How many times are we going keep doing this? You all look great. God bless you. It is good to see you again. We have had these discussions over and over. I am one and I appreciate the Chairman bringing this up because it is now time to mark up, move on, and get something to a new topic. Okay?    But I think at the end of this thing I support the bills that are being discussed today. But I really do want to talk about, for just a moment, one, again I had this conversation at this hearing last Congress about the just, what I believe is just ludicrous 50 W-2s that we can't simplify. This is that and we got into a long conversation and I am not going down that hole again. I just want to say that.    But I appreciate you being here but I do want to talk about one that is not on our list today, and hopefully it will be pretty soon. And that is H.R. 235, the Permanent Internet Tax Freedom Act. It is not before the Committee today and I can't talk about states regulatory and tax authority without first mentioning that bill and encouraging the Subcommittee and the Committee as a whole to quick action on it.    I am a strong supporter and a proud cosponsor of the Permanent Internet Tax Freedom Act introduced by Chairman Goodlatte. The Internet Tax Freedom Act has been extended multiple times and passed the House by voice vote only last Congress. Again, that is what we do a lot of times. Let us kick it down--it is almost like we got to find a can to kick. So let us just find this can and we will kick it again next year.    It will expire on October first of this year. Simply put, we can't let this happen. This would actually permanently prohibit Federal, state, and local governments from imposing taxes on Internet access. I don't think anyone would argue about the enormous impact of the Internet and the access to information and the opportunity that it provides. We need to keep it affordable so that Americans of all backgrounds can access the Internet rather than adding to the already huge burden faced by taxpayers.    It is critical that we make permanent the Internet Tax Freedom Act once and for all to protect consumers and maintain growth and grow access to the Internet to prevent multiple discriminatory taxation, to encourage innovation, and to promote job creation and economic growth.    And before I yield back, I want to say something that was said, and I think Mr. Norquist, I think you said it. I think it has been actually possibly previously implied by several others. Until we get to a position in the Federal Government--I am from the state government level. I worked for 6 years in Georgia on the issues of taxes, the issues of spending.    I am asked all the time by folks: Why can't you just, you know, do a budget. And I think it goes back to the inherent problem that we have. Government does it sort of the backwards way of most businesses. Most businesses will look at a business plan and they say, ``Okay, this is what it is going to cost me if I open this business. It is going to cost me X dollars to break even and then to make a profit.''    Government starts the opposite way around. They say, ``Let us tax and figure out how to spend it.'' And until we get that problem right, states are going to be looking for money, local municipalities are going to be looking for money. We have had a lot of discussion about a bill that is not on the agenda today, marketplace fairness. But I think we have got to get back to--that is what the people of the ninth district expect, and if we need to have an adjustment and we need to talk about the whole aspect of budget, let us do so. But let us remember at the end of the day what is government's purpose, why are we here, and then we can see how the funding fits the purpose instead of our growing purpose in finding a funded for it.    With that, Mr. Chairman, I yield back.</t>
@@ -1123,11 +1069,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1147,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1175,11 +1117,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1199,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1227,11 +1165,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1251,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1279,11 +1213,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1303,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1331,11 +1261,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1355,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1383,11 +1309,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1407,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1435,11 +1357,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1459,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1487,11 +1405,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1511,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1539,11 +1453,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1563,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1591,11 +1501,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1615,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1643,11 +1549,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1667,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1695,11 +1597,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1719,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1747,11 +1645,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1771,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>47</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1799,11 +1693,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1823,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>47</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1851,11 +1741,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1875,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1903,11 +1789,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1927,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1955,11 +1837,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1979,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2007,11 +1885,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2031,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2059,11 +1933,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2083,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2111,11 +1981,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2135,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2163,11 +2029,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2187,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2213,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2239,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2265,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2291,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2317,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2343,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2369,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2395,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2421,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2447,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2473,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2499,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2525,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2551,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2577,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2603,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2629,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2655,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2681,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2707,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2733,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2759,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2787,11 +2605,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2813,11 +2629,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2837,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2863,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2889,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2915,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2941,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2967,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2993,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3019,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3045,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3071,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3097,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3123,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3149,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3175,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3201,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3227,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3253,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3279,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3305,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3331,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>47</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3357,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3383,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>47</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3409,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3437,11 +3205,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3461,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3487,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>47</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3513,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3539,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>47</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3565,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3591,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3617,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3643,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3669,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3695,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3721,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3747,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3773,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3801,11 +3541,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3825,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3853,11 +3589,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3877,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>130</v>
-      </c>
-      <c r="G108" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3903,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3929,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>130</v>
-      </c>
-      <c r="G110" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3955,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3981,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>130</v>
-      </c>
-      <c r="G112" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4007,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4033,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>130</v>
-      </c>
-      <c r="G114" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4059,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4085,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>130</v>
-      </c>
-      <c r="G116" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4111,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4137,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
+        <v>119</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
         <v>130</v>
-      </c>
-      <c r="G118" t="s">
-        <v>131</v>
-      </c>
-      <c r="H118" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4163,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>47</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4189,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>130</v>
-      </c>
-      <c r="G120" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4215,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>47</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4241,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>130</v>
-      </c>
-      <c r="G122" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4267,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4293,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>130</v>
-      </c>
-      <c r="G124" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4319,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4345,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>130</v>
-      </c>
-      <c r="G126" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4371,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4399,11 +4093,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4423,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>153</v>
-      </c>
-      <c r="G129" t="s">
-        <v>154</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4449,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4475,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>153</v>
-      </c>
-      <c r="G131" t="s">
-        <v>154</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4501,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4527,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>153</v>
-      </c>
-      <c r="G133" t="s">
-        <v>154</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4553,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4579,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>153</v>
-      </c>
-      <c r="G135" t="s">
-        <v>154</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4607,11 +4285,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4631,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>163</v>
-      </c>
-      <c r="G137" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4657,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4683,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>163</v>
-      </c>
-      <c r="G139" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4709,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4735,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>163</v>
-      </c>
-      <c r="G141" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4761,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4787,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>163</v>
-      </c>
-      <c r="G143" t="s">
-        <v>164</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4815,11 +4477,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4841,11 +4501,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4865,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>173</v>
-      </c>
-      <c r="G146" t="s">
-        <v>174</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4891,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4917,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>173</v>
-      </c>
-      <c r="G148" t="s">
-        <v>174</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4943,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4969,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>173</v>
-      </c>
-      <c r="G150" t="s">
-        <v>174</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4995,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5021,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>173</v>
-      </c>
-      <c r="G152" t="s">
-        <v>174</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5047,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5073,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>173</v>
-      </c>
-      <c r="G154" t="s">
-        <v>174</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5099,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5125,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>173</v>
-      </c>
-      <c r="G156" t="s">
-        <v>174</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5151,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5177,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>173</v>
-      </c>
-      <c r="G158" t="s">
-        <v>174</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5205,11 +4837,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5229,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
+        <v>159</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
         <v>173</v>
-      </c>
-      <c r="G160" t="s">
-        <v>174</v>
-      </c>
-      <c r="H160" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5257,11 +4885,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5281,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>190</v>
-      </c>
-      <c r="G162" t="s">
-        <v>191</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5307,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5333,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>190</v>
-      </c>
-      <c r="G164" t="s">
-        <v>191</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5359,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5385,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>190</v>
-      </c>
-      <c r="G166" t="s">
-        <v>191</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5411,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5437,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>190</v>
-      </c>
-      <c r="G168" t="s">
-        <v>191</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5463,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5489,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>190</v>
-      </c>
-      <c r="G170" t="s">
-        <v>191</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5515,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5541,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>190</v>
-      </c>
-      <c r="G172" t="s">
-        <v>191</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5567,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5593,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>190</v>
-      </c>
-      <c r="G174" t="s">
-        <v>191</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5619,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5645,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>190</v>
-      </c>
-      <c r="G176" t="s">
-        <v>191</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5673,11 +5269,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5697,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>207</v>
-      </c>
-      <c r="G178" t="s">
-        <v>208</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5723,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5749,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>207</v>
-      </c>
-      <c r="G180" t="s">
-        <v>208</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5775,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5801,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>207</v>
-      </c>
-      <c r="G182" t="s">
-        <v>208</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5827,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5853,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>207</v>
-      </c>
-      <c r="G184" t="s">
-        <v>208</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5879,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5905,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>207</v>
-      </c>
-      <c r="G186" t="s">
-        <v>208</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5931,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5957,13 +5531,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>207</v>
-      </c>
-      <c r="G188" t="s">
-        <v>208</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5983,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6009,13 +5579,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>207</v>
-      </c>
-      <c r="G190" t="s">
-        <v>208</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6035,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6061,13 +5627,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>207</v>
-      </c>
-      <c r="G192" t="s">
-        <v>208</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6087,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>18</v>
-      </c>
-      <c r="G193" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6113,13 +5675,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>207</v>
-      </c>
-      <c r="G194" t="s">
+        <v>191</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
         <v>208</v>
-      </c>
-      <c r="H194" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6139,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6165,13 +5723,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>207</v>
-      </c>
-      <c r="G196" t="s">
-        <v>208</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6193,11 +5749,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6217,13 +5771,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6245,11 +5797,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6269,13 +5819,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6297,11 +5845,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6321,13 +5867,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>233</v>
-      </c>
-      <c r="G202" t="s">
-        <v>234</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6349,11 +5893,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94807.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94807.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Marino</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Marino. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order.    Without objection, the Chair is authorized to declare recesses of the Committee at any time. We welcome everyone to today's hearing on Nexus Issues: Legislative Hearing on H.R. 2315, the ``Mobile Workforce State Income Tax Simplification Act of 2015;'' H.R. 1643, the `Digital Goods and Services Tax Fairness Act of 2015;'' and H.R. 2584, the ``Business Activity Tax Simplification Act of 2015.''    I will now recognize myself for an opening statement.    I came to Congress with certain core principles that guide my work in Washington. One is that we should aim for less government regulation not more. That is why we are pleased to hold this legislative hearing. With all the focus on Washington, it is easy to forget the burdens that can flow from state capitals. That is especially true when discussing taxation of interstate commerce.    I am a staunch supporter of states' rights in the principles of federalism, but I believe states should be sovereign within their borders only. I have become concerned when states trying to tax or regulate beyond their borders. Unfortunately, this is happening with greater regularity and it has necessitated the three bills we are examining at this hearing.    Today, employees who travel across state lines for work face a myriad of crushing income tax laws. This is true even if they work in the state for just a single day. The complexity and variation of different state laws places a significant burden on the ability of businesses to deploy their workforces. Small businesses, in particular, are especially effected.    It is also draining on the employees who must hire accountants, at their own expense, to handle the paperwork for multiple state tax jurisdictions. The Mobile Workforce State Income Tax Simplification Act of 2015 addresses this problem. It creates a bright line, 30-day threshold before a state can impose income tax liability on a nonresident temporarily working in the state. This minimizes compliance burdens on both workers and employers so they can get back to work.    Just as states target nonresident workers for taxation, they also target nonresident businesses. An increasing number of states used the concept of economic presence to subject nonresident companies to state income tax simply because those companies have customers in the state. For example, New Jersey has impounded trucks delivering boats to customers in New Jersey, because the state demands that out-of-state manufacturers pay income tax to New Jersey. Similarly, Massachusetts demands income tax from out-of-state businesses if they deliver trucks which carry through the state on their own way to businesses from elsewhere.    The Business Activity Tax Simplification Act, known as BATSA, requires an entity to be physically present in the state for more than 14 days in a year because it can be subject to state's business activity tax. It also sets a clear guideline on what constitutes a physical presence in order to reduce uncertainty.    The third bill before us is H.R. 1643, the ``Digital Goods and Services Tax Fairness Act of 2015.'' This sets forth the purchase of digital goods and services to prevent multiple taxation of cross border sales.    Every one of these bills is bipartisan. It is a testament to the soundness of their policies. I also commend the sponsors of these bills, many of whom serve on the Judiciary Committee. I note particularly Mr. Bishop, Ranking Member Johnson, and Mr. Cicilline, who are original cosponsors of the Mobile Workforce bill.    I look forward to hearing from our distinguished panel of witnesses.    It is now my pleasure to recognize the Ranking Member of the Subcommittee on Regulatory Reform, Commercial and Antitrust Law, Mr. Johnson of Georgia, for his opening statement.</t>
   </si>
   <si>
     <t>412199</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    Today's legislative hearing is an opportunity to consider three pieces of legislation that would address the divergent patchwork of state laws enforcing various tax issues. The Mobile Workforce State Income Tax Simplification Act is an important bipartisan bill that will help workers across the country and it will also help small and multistate businesses.    Having introduced this bill in both the 110th and 111th Congresses, I am very familiar with this issue. I was pleased to have introduced the bill in the last two Congresses with our esteemed former colleague from North Carolina, Howard Coble, and I welcome my colleague Congressman Bishop's leadership on this bill. And I look forward to working together on this legislation.    H.R. 2315 provides for a uniform and easily administrable law that will simplify the patchwork of existing inconsistent and confusing state rules. It would also reduce administrative cost to states and lessen the compliance burdens on consumers. I urge that the Committee move this bill promptly so that it can come to the floor for a vote soon. This country's employees and businesses deserve quick action.    Turning to H.R. 2584, the ``Business Activity Tax Simplification Act of 2015.'' This legislation would establish a physical presence standard which must be met before states can impose a business activity tax. While proponents of this legislation contend that businesses need more certainty in determining what activities are taxable and that a uniform standard would provide that, others have argued that states should determine what activities are taxed within their borders and that a physical presence standard created in this bill would invite tax evasion.    Although I have supported similar legislation in the past, I have grown concerned that this bill would prove too costly to states. The Congressional Budget Office reported that a substantively identical predecessor of this bill would cost about $2 billion in the first full year after enactment and that at least that amount in subsequent years. We should study whether there are alternative methods which accomplish the same goal of providing more certainty for businesses while minimizing any impact on our state and local governments, or perhaps revise the bill's language to dampen its affect on state revenues.    Lastly, H.R. 1643, the ``Digital Goods and Services Tax Fairness Act of 2015'' would prohibit state and local governments from imposing discriminatory and multiple taxation of digital goods and services and also establish a tax sourcing framework for the sale or use of digital goods and services. I have long supported this bill which will promote innovation in sales through a national framework for digital purchases.    In closing, although I welcome today's hearing, I also look forward to this Committee addressing the remote sales tax issue. As a strong supporter of a level playing field, I have long supported the Marketplace Fairness Act. Despite my preference for a legislative hearing on that bill, I welcome any movement toward addressing the remote sales tax issue.    And with that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -67,18 +82,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    Good morning and welcome to all of our witnesses.    The unifying theme of this legislative hearing is ``No Regulation Without Representation.''    For much of American history, state's cross-border reach was strictly limited. Until about 1950, states could not tax interstate commerce at all. Courts then began to relax the rules. In 1977, the Supreme Court held that states may tax interstate commerce if there is a ``substantial nexus'' to the taxing state.    In the context of sales taxes, ``substantial nexus'' means a seller is physically present in the jurisdiction. The Court, however, has never clarified whether the physical presence rule applies to certain other impositions, such as business activity taxes.    Accordingly, states are increasingly exploiting the gray area in the law to tax and regulate beyond their borders. For example, California is now requiring that out-of-state farmers who want to sell eggs in California comply with California cage-size requirements which are twice the industry standard. The Alabama Attorney General described the new law as ``California's attempt to protect its economy from its own job-killing laws by extending those laws to everyone else in the country.''    This is precisely the sort of protectionism that the commerce clause is intended to prevent. It also highlights one of the most pernicious aspects of states taxing and regulating beyond their borders. It permits lawmakers to dodge accountability for the burdens associated with their policy choices by shifting them onto nonresidents who cannot hold them accountable at the ballot box.    Indeed, this Subcommittee heard testimony in 2014 that, if Congress lets ``economic presence'' rather than ``physical presence'' becomes the standard, states will mostly exempt resident companies from tax obligations while imposing them on out-of-state companies. That is why I am so pleased that Chairman Marino is holding this hearing.    The Business Activity Tax Simplification Act restores physical presence, defined as presence for more than 14 days, as a prerequisite to a state imposing business activity taxes. Similarly, the Mobile Workforce Tax Simplification Act prevents states from imposing income tax compliance burdens on nonresidents who work in the state for less than 30 days a year.    Critics raise concerns about state sovereignty and revenue loss to the states. But a study of the Mobile Workforce bill found it would have a de minimis impact on state revenues. In addition, those objections proceed from the incorrect premise that ``economic nexus,'' rather than ``physical presence,'' is the appropriate touchtone for determining whether a state has the authority to tax. In other words, these bills do not deprive the states of anything to which they have a clear claim.    Also, before the Committee is the Digital Goods and Services Tax Fairness Act of 2015. It sets sourcing rules for the purchase of digital goods and services. These rules will help implement the Permanent Internet Tax Freedom Act's ban on multiple taxes of Internet commerce. This ban expires October 1, of this year and the Committee will soon move to renew it.    The Committee is also eager to proceed with legislation that levels the playing field between traditional and online retailers without letting states tax and regulate beyond their borders. Productive discussions continue.    These are important issues, and I look forward to the witnesses' testimony.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Chairman.    It is now my pleasure to recognize the Judiciary Committee Ranking Member, Mr. Conyers of Michigan, for his opening statement.</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Marino and the Members of the Committee, and the distinguished witnesses with us today; as well as those that are interested enough to come to the hearing itself.    Today's hearing focuses on three bills dealing with the issue of state taxes. And as we consider them, there are several points that I would like to present.    This Committee should first focus on establishing without further delay a national framework that will empower the states to enforce collection by remote sellers. Unfortunately, none of the bills that are the subject of today's hearings address the remote sales tax dilemma states are currently facing. More than two decades ago, the Supreme Court recognized, in the 1992 Quill decision, that Congress is best suited to determine whether a remote seller must collect taxes, sales taxes. Yet, Congress has failed to make that critical determination.    Although Congress has considered various legislative proposals, including during the last Congress when the Senate overwhelmingly passed the Marketplace Fairness Act, the House has not taken any meaningful action beyond holding hearings. We owe it to our local communities, our local retailers, and state and local governments to act this Congress. Otherwise, our local retailers will continue to be at a competitive disadvantage and our state and local governments will continue to lose critical tax revenues as a result of remote sellers not collecting and remitting sales taxes.    Lost tax revenues mean that state and local governments will have fewer resources to provide their residents essential services; such as education and police and fire protection. Uncollected sales taxes mean fewer purchases at local retailers which translate to fewer local jobs. The unfair advantage that remote sellers have by not collecting sales taxes hurts us all. Congress should not delay any further and it should work to pass bipartisan legislation. I welcome the opportunity to work with the Chair on moving legislation this Congress on remote sales tax issues.    Now, as to H.R. 2315, the ``Mobile Workforce State Income Tax Simplification Act of 2015,'' and H.R. 1643, the ``Digital Goods and Services Tax Fairness Act of 2015,'' both of these measures, although improved over several Congresses, still fail to address the needs of all stakeholders. Even though H.R. 2315 incorporates much needed improvements reflecting important input from the state governments and the business community, the bill still requires further revisions to eliminate its adverse impact on state revenues.    For example, if the bill were enacted as introduced New York would lose upwards of $100 million in revenue. Chairman Schumer will take note of that, I am sure. Similarly, the sponsors of H.R. 1643 must work with the state and local governments to draft language all parties can find agreeable.    Ms. Magee and Mr. Crippen likely will have suggestions to address the state and local government's concerns with both of the bills.    And finally, H.R. 2584, the ``Business Activity Tax Simplification Act of 2015,'' is thoroughly flawed legislation especially in light of the fact that it overrides the authority of states to determine how and what they tax within their own borders. The bill upends long-settled state tax practices by implementing a standard falsely based on physical presence and by including loopholes that make such a standard meaningless for state governments.    The bill favors big multistate corporations at the expense of small and local businesses. It encourages tax evasion by creating opportunities for nationwide businesses to structure corporate affiliates and transactions to avoid paying their fair share of local taxes.    The bill prevents states from imposing business activity taxes on businesses which have less than 15 days of physical presence within the state. This will shift the state corporate income tax burden onto local small businesses, manufacturers, and service providers; in other words, the types of businesses that pay local property and payroll taxes. And the measure will eviscerate state revenues with respect to nearly identical legislation considered several years ago.    The Congressional Budget Office estimated that it would reduce state revenues by about $2 billion in the first full year following enactment and at least that amount in subsequent years and that it would generate even greater future state tax revenue losses as corporations avail themselves of the bill's virtually unenforceable standard and vast loopholes. We should not be forcing upon the states a $2 billion decrease in their tax revenues. Accordingly, I urge my colleagues to seriously consider scrapping the Business Activity Tax Simplification Act and let us start all over again.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you.    Without objection, all the Member's opening statement will be made part of the record.    We have a very distinguished panel with us today, and I will begin by swearing in our witnesses before introducing them.    So would you please rise and raise your right hand please?    Do you swear that the testimony you are about to give is the truth, the whole truth, and nothing but the truth so help you God?    Let the record reflect that the witnesses have responded in the affirmative.    Thank you. Please be seated.    I will introduce the witnesses for today. Grover Norquist is President of Americans for Tax Reform, ATR; a taxpayer advocacy group he founded in 1985. ATR works to limit the size and cost of government and opposes higher taxes at the Federal, state, and local levels. It supports tax reform that moves toward taxing consumed income one time at one rate. Mr. Norquist serves on the board of several organizations and has served in many capacities and has served, also, in government capacity as well; such as the Advisory Commission on Electronic Commerce and as commissioner for the National Commission on Restructuring the IRS. Mr. Norquist holds both an undergraduate degree in economics as well as an MBA from Harvard University.    Welcome, Mr. Norquist.</t>
   </si>
   <si>
+    <t>Norquist</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Norquist. Thank you very much.</t>
   </si>
   <si>
@@ -91,30 +115,45 @@
     <t xml:space="preserve">    Mr. Marino. Thank you.    The Chair now recognizes Mr. Rosen.                   McDERMOTT WILL &amp; EMERY LLP</t>
   </si>
   <si>
+    <t>Rosen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rosen. Mr. Chairman, Members of the Committee, BATSA, H.R. 2584, addresses a major problem facing American businesses today, and that is states imposing tax on businesses that aren't in the state. In effect, states are taxing activities that occur outside their borders. States have taken two avenues to achieve that goal. One is to assert the concept of economic nexus and the other is to try to get around a Federal law enacted in 1959 and that is Public Law 86-272. Economic nexus is the assertion by a state that if an out-of-state business has customers within its borders, then that state has a right to impose tax on the out-of-state business.    P.L. 86-272, the 1959 law, was supposed to be a temporary law. And the Willis Commission was impaneled by Congress to look at this issue. And the Willis Commission came out with a report that said states should have a physical presence requirement and also states should have their apportionment in a uniform manner around the country. While neither has happened, states have gone in the opposite direction. So the need for that law is even greater today than it was in 1959.    Now, BATSA addresses the economic nexus argument, as you've heard, by establishing a physical presence test. A company must have employees or property in the state for more than 14 days during the year before the state may impose its direct tax on that business. Also, 86-272 would be modernized to meet the new economy.    Now, those who support BATSA do so for the following reasons. Those people believe that tax should be paid to jurisdictions that are furnishing benefits and protections to a taxpayer, not to somebody outside. And states respond by saying, ``Well, we're maintaining a marketplace for you, out-of-state seller. We're maintaining a civilized society so you can sell to our people. Therefore, you should pay us for that.''    But I would hope, and I think everybody here would hope, that elected officials do things for people within their borders; their constituents. They're not maintaining a market for outside businesses. People in the state get those benefits.    Another reason that physical presence is correct is because income should be taxed where earned. We all know that income is earned where labor and capital is employed. If you were to work at home, suppose you telecommute or you have a consulting business in your home in Virginia, and you work very hard, you buy some equipment that you use for word processing and research, and you find a customer in Utah or you're telecommuting your employer is in Utah, you work every day in Virginia. Where do you earn your income? Where your customer is? In Utah? Of course not. You earn your income where you expend your labor and your capital.    So when states say, ``Well, markets are important. There's no sale, there's no profit.''    That sounds nice, a nice sound byte. But you really earn your income where you expend your labor and your capital.    Next, BATSA would help American businesses compete against foreign businesses. That's because, as a practical matter, states have no way of enforcing economic nexus against companies that have no presence in the United States. We've seen a couple of states pull back from even attempting to tax foreign businesses while they continue their attack on American businesses.    Next, the United States and every other country that has entered into a tax treaty in the world has this idea of a permanent establishment in there. And that is similar to what BATSA does, but BATSA is much more generous to the taxing officials than even the treaty permanent establishment concept is.    Now, those who are generally against this is executive branch of state governments. The NCSL has not voiced any opposition. As a matter of fact, the NCSL several years ago passed a resolution supporting the principles in BATSA. So the executive branch has a lot of complaints. They say, first of all, current law allows us to tax out-of-state businesses. Well, that's not exactly true.    The U.S. Supreme Court has never ruled on this case; has never looked at the commerce clause issues. It denied my cert petition in MBNA; the following year, it denied a cert petition in Cap One. A court has probably been at Congress to decide how to regulate this area. This is not Federal intrusion. This is what interstate commerce is all about. That's why we have a Constitution instead of the Articles of Confederation, to make sure we have one economy, that states do not set up barriers. And so this is Congress' role to regulate interstate commerce, to make sure that tax is done correct.    People say this tool could be used for tax sheltering, tax avoidance, tax shifting. The bill has a specific provision that prevents companies from doing that, it gives states all the rights they have to fight tax shams and close down loopholes.    Finally, a question was raised: Where is this cost going to come from if, in fact, this is cost $2 billion to the states if BATSA were enacted? Well, an independent study showed that this was less than 5 percent of total business tax collections that states get. Second, maybe the taxes should come from businesses and people in the jurisdiction that are receiving the benefits and protections of that government.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, sir.    Mr. Lindholm?</t>
   </si>
   <si>
+    <t>Lindholm</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lindholm. Thank you, Chairman Marino, Ranking Member Johnson, and Members of the Committee.    My name is Doug Lindholm. I'm the President, Executive Director of the Council on State Taxation, also known as COST. I am here today representing COST and the 275-member Mobile Workforce Coalition in favor of H.R. 2315.    First, I'd like to thank Congressman Bishop and Ranking Member Johnson for introducing that legislation this year. This is the ninth year that we've been working on this issue, and Congressman Johnson has been with us from the get-go. And I thank you, sir, for your leadership on this issue.    The issue is how to simplify the patchwork of state personal income tax laws that face any employee who travels for work across state borders and, two, their employers who also have an associated withholding requirement on that income. Every day, hundreds of thousands of employees across the U.S. are sent by their employers to work in states where they don't reside. Most of these trips are temporary in nature. That is, you leave your resident state, you go to a nonresident state, and you're back to your resident state.    Currently, every state has that has a personal income tax has different rules for when an employee, one, has to file a personal income tax and, two, when their employers has to withhold on that income for the state.    Exhibit B, in my testimony, has a very instructive map that shows you the variation across the states. And this doesn't just affect business either. It affects all employees and employers, private sector and public sector alike. It affects all businesses large and small, it affects non-profit organizations, unions, teachers, state employees, the utility crews that come from neighboring states to help get the lights back on after a natural disaster. They can trigger this personal income tax filing requirement. And let me tell you, they have a lot more to think about than filing a nonresident return. It even applies to Departments of Revenue and Congressional staffers.    There is precedent for this legislation in this body. Congress has already recognized and protected from this patchwork of state laws. Industries that are highly mobile; Merchant Mariners, railroad workers, airline workers, motor carrier employers, members of the military, groups that are highly mobile are protected from this patchwork by Congress. Remember, this issue affects all employees who travel for work and creates a huge administration and compliance burden that is absolutely unnecessary.    The solution in H.R. 2315 is a pragmatic, effective solution to this problem. It just provides a 30-day threshold for temporary work assignments and until that 30 days is met, the employee remains fully taxable in his or her resident state.    Now, admittedly there is currently widespread non-compliance in this area. But the truth is nobody could live with full compliance. State Departments of Revenue would be absolutely overwhelmed by this small dollar returns if everybody was in full compliance here. And since the majority of business trips in the country today are less than 30 days, if this bill were enacted, instantly hundreds of thousands of traveling employees would be brought into compliance and they would not have to do a thing.    Now, what is untenable about the current situation is that if a state does start looking around and find a noncompliance in this area, it raises the specter or the perception of selective enforcement. And when you have selective enforcement, it tends to undermine the faith and credibility of our entire tax system. It is entirely appropriate that Congress act here. This is an administrative fix to a very different problem, one that cannot be fixed by the states themselves because of the out-of-state component here.    I want to commend the Multistate Tax Commission. They have developed a model act of their own and we helped them. It was adopted in 2011, but since then only one state, North Dakota, has adopted it. And it's only effective unless other state win-win and with other states adopted. And it is because this needs concerted effort to resolve this problem that this body is the only body that can take action.    One issue, you know, I am happy to take question on the specifics of the bill. One part of the bill I'd like to elaborate on, and that is the fact that the employer can rely on the employee's determination of time spent in nonresident state. For that purpose, that's only for purposes of levying penalties. The amount of withholding is still based on the actual time of the state. I think there has been some misunderstanding of that in the past that has been changed and corrected.    One other aspect, the bill does not cover professional athletes, professional entertainers, and certain public figures of national prominence who are paid on a per event basis. This Committee passed this legislation nearly identical on voice vote during the 112th Congress. We respectfully ask, on behalf of COST and the coalition, to support the speedy adoption of     Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you.    The Chair now recognizes Mr. Leaman.</t>
   </si>
   <si>
+    <t>Leaman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Leaman. Mr. Chairman, Ranking Member Johnson, and Congressman Bishop, I'd like to thank you for the opportunity to testify today on behalf of H.R. 2315. As the vice president of Taxes for Masco Corporation, which is the member of the coalition, we have been active members of the coalition primarily to see enactment to this legislation through enactment. And I'm here today to testify to be able participate in a rare opportunity to move truly widespread bipartisan legislation through the Congress.    Masco Corporation is headquartered in Taylor, Michigan. It's one of the largest manufacturers of brand-name products for the home construction industry and remodeling. We have Delta Faucets, Behr Paint, KraftMaid and Merillat Cabinets, Milgard Windows, Caldera Hot Spring and Spas; as well as we install products for the home, as well as install insulation in the new home construction market. Our workforce includes many employees that travel across state lines that which include our sales force; which includes installers for cabinets, installers of insulation, as well as employees who provide support to the big boxes, in particular Home Depot and Lowes.    We have a workforce of over 23,000 people in the United States. I would say at least 40 percent of those employees would qualify as mobile workers. Therefore, a large portion of our workforce we had have to track.    We have a tremendous representation from the subcommittee of our employee base. Chairman Marino's district in Sayre, Pennsylvania has over 700 employees with Masco cabinetry. The 560 employees in Vista, California of Congressman Issa's district. We have a BrassCraft headquartered in Novi, Michigan, Representative Trott's district. And we have over a thousand individuals employed in the State of Washington State, of Congresswoman DelBene.    The problem. You know, Masco Corporation as most large corporation make every effort to comply with tax laws and regulations. And it's a tremendous burden and it takes tremendous resources for us to accomplish that. Masco has a long history of being transparent in working with taxing authorities in a way to move forward the process.    The management of the workforce that we're referring to today does not come under my responsibility. You know, marketing, HR, sales, but oftentimes I'm consulted because of the tax matters that they're faced with. People often ask me what am I faced--what keep me up at night and Sarbanes-Oxley, which is effectively referred to as Sox is one of my, you know, biggest concerns. And when you look at the administration of a workforce, 40 percent where they are traveling across state lines, you know I'm never assured of the fact of when a problem might arise that cause me Sarbanes-Oxley's issues.    Just to give you a couple of examples of what we're faced with, you know, we have, as I indicated, a workforce that travels across state lines. And when we take an example of our installation service group, we have 7,000 employees that work in that group and, yet, we file 10,500 W-2s on behalf of that workforce primarily attributable to the fact that these individuals cross state lines.    Another issue, albeit an extreme example, but we had one individual who, because of crossing state lines and moving into different municipalities in one given year, had 50 W-2s. So if you can envision an individual who makes something less than $50,000 a year and at the end of the year is faced with filing his tax return, it's undaunting. And to highlight that issue, he would be or others required to go out and hire tax professionals at a cost that oftentimes they cannot afford. And yet, it's not uncommon. It's quite frequent that we receive calls from these CPA's, tax professionals, asking us, in terms of how to administer these tax laws and what opportunities might we be able to do to mitigate the costs to these individuals.    So as we've talked about, this is a tremendous administrative burden on both not just the employer but on the employee as well.    And again, referring to the simplicity of, I think, the tax legislation that we're putting forth, it's an administrative fix where we are not doing anything to adjust or deflect the proper tax reporting of income. It's merely administratively expedient on behalf of all parties whether it is the corporations, individuals, government taxing authorities, it's a relief. So I'm here to encourage the Subcommittee to report this out to the full Congress.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you.    Mr. Carpenter?</t>
   </si>
   <si>
+    <t>Carpenter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carpenter. Chairman Marino, Ranking Member Johnson, and Members of the Subcommittee, thank you very much for the opportunity to testify in support of the Digital Goods and Services Tax Fairness Act. My name is Jot Carpenter and I serve as vice president of Government Affairs for CTIA, the Wireless Association, though I'm here today on behalf of the Download Fairness Coalition. CTIA is a member of the DFC, a group of 29 companies and organizations whose unifying principle is the belief that the Internet economy requires a consistent national framework to guide the way that states and localities exercise their right to tax digital products and services.    That consistent national framework is embodied in H.R. 1643, sponsored by your colleagues Lamar Smith and Steve Cohen, whom we thank for their leadership and commitment to addressing our concerns. The Smith-Cohen bill achieves the objective we seek while embodying basic principles of fairness for consumers and those like CTIA's members that effectively service the agents of the states. All while avoiding the imposition of any new taxes and respecting each state's determination on how or if to tax digital products. It is framework that only Congress can enact to provide the certainty, stability, and safeguards needed to keep the digital economy a thriving part of our overall economy.    At its core, the bill seeks to achieve two equally important objectives. First, it seeks to preclude multiple jurisdictions from claiming the right to tax the same transaction by clearly assigning one jurisdiction, the customer's home jurisdiction, the authority to impose taxes on digital goods. Second, it seeks to preclude discriminatory taxation of such commerce to ensure that digital goods are taxes at the same rates and under the same rules that apply to physical goods.    Now, with respect to the first of these objectives, H.R. 1643 draws upon the successful model that this Committee created 15 years ago for wireless and voice services. The Mobile Telecommunications Sourcing Act established a successful national framework to guide how state and local jurisdictions may tax wireless voice services eliminating the chance of double taxation while simplifying carrier administration and end user bills.    The MTSA has proven durable and effective, and it offers a fine model for how digital products should be treated. But as was the case with wireless voice 15 years ago, Congressional action is needed because the states and localities have neither the ability nor the Constitutional authority to create the necessary framework on their own.    With respect to the second of our objectives, H.R. 1643 establishes the simple principle that digital goods should not be subject to discriminatory taxation. The discriminatory taxation of communication services and digital commerce has been widely acknowledged as problematic since the Advisory Commission on Electronic Commerce, on which Grover served, delivered its report during the Clinton administration and increasingly the digital nature of our economy demands a solution to this inequity.    There is no reason why this summer's beach reading should be taxed differently if it is downloaded to a Kindle or a tablet that if it is purchased in paperback at the local drug store. And H.R. 1643 will ensure that digital and physical goods are subject to the same treatment. While it is proper to leave to the states the decision about whether and at what level to tax these goods, it is a completely reasonable exercise of Congressional authority to prevent discrimination among them.    The important nondiscrimination provisions of H.R. 1643 also complement other bills before the Committee; such as the Goodlatte-Eshoo Permanent Internet Tax Freedom Act and the forthcoming Lofgren-Franks Wireless Tax Fairness Act. H.R. 1643 and those bills will move us away from a tax system designed for the long-passed days of Ma Bell and instead align our telecom system with the age of the smartphone and mobile broadband. Today's information economy deserves no less.    Mr. Chairman and Members of the Subcommittee, thank for this opportunity to testify in support of H.R. 1643. I hope the Committee and the House will approve the bill at the earliest possible date.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, sir.    The Chair now recognizes Commissioner Magee.</t>
   </si>
   <si>
+    <t>Magee</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Magee. Good morning.    Thank you, Chairman Marino and Ranking Member Conyers and Members of the Subcommittee. My name is Julie Magee and I am the Alabama Commissioner of Revenue. I am also the chair of the Multistate Tax Commission, as well as secretary of the Board of Trustees for the Federation of Tax Administrators. And it is in my capacity in these organizations today that I'm here. On behalf of them and all of the states that participate, I would like to say we greatly appreciate this opportunity and hope that our testimony here, which is provided in more detail in written form, is helpful.    The Subcommittee is considering legislation that would have a substantial impact on state taxing systems, tax administration, and enforcement. We realize there are always going to be those who would like Congress to regulate state taxation. That is why we appreciate the fact that this Committee and Congress in general has been very cautious over the years in responding to these calls for Federal involvement.    I just want to briefly point out the most critical problems these bills present. That obviously means that I will be focusing on the negatives, and I apologize. But we hope that it helps this Committee understand why we oppose these bills.    First, let me address the Mobile Workforce State Income Tax Fairness and Simplification Act. This bill restricts state imposition of income state and tax withholding on wages for nonresident employees working in the states. Just like every major country that has an income tax including this one, states impose income tax on nonresidents. Those nonresidents then get to take a credit against taxes imposed by their home country or state. This bill would prevent states from taxing any employee that is in the state for less than 6 weeks regardless of how much that employee makes. This bill also essentially makes employer withholding and recordkeeping voluntary for many nonresident workers.    For my role as a tax administrator and any other tax commissioner will tell you, including the head of the IRS, that having employers withhold taxes on wages and keep records is the key mechanism to making our income tax system function. We understand that it wouldn't be reasonable to require withholding for nonresident employees who are only in a state for a few days during the year. That's why revenue departments rarely, if ever, make an issue out of it.    At the Multistate Tax Commission, we recognize that there was a potential issue for some employers and we developed a model law which we have recommended to the states. It would impose a 20-day threshold, would not apply to high wage employees, would require employer recordkeeping, but would not require withholding for less than 20 days. And we've said this publically many times before. We would be happy to join hands with industry and go to our state legislatures and get this model law enacted.    The second bill I want to address is the Digital Goods and Services Tax Fairness Act. This bill is very complex and has been studied by our organization and others. As for the special protections in this bill, I would just note that states have not taxed digital goods and services more than other products. If anything, they've taxed them much less. But, more important is the effect of the sourcing rules. Congress has imposed a uniform sourcing rule on a state sales tax once before and the area of mobile telecommunication services called the Mobile Telecommunications Sourcing Act.    Both that act and this bill basically say that only one state can tax the sale of something; generally the destination state. But unlike the Mobile Telecom Act, this bill does not grant the destination state the authority to require collection of the tax from a seller that doesn't have physical presence in the state. And as you know, that the states can't collect tax from remote sellers like Internet sellers has become a huge problem for the states.    If the bill prevents the origin state from taxing the sale and doesn't grant the destination state the authority to do so, then most sales of digital products will escape any tax.    Finally, and most importantly, I want to express our deep concerns for the Business Activity Tax Simplification Act. This bill has been around a long time. And as you know, the National Governors Association has said that the CBO's office estimate of the physical impact on the states which could be $2 to $3 billion for the first year is just the tip of the iceberg. No state that imposes a business or corporate income tax doubts that they will see substantial erosion of the tax base if this bill were to be enacted.    This bill creates a tax-free zone for big, multistate, multinational companies and allows them to use tax strategies to shift income as to avoid state taxes all together. What this means is that mostly smaller, domestic, local businesses that can't lower their taxes by engaging in income shifting will ultimately be at a disadvantage. And from an administrative standpoint, it also means the states are at a disadvantage because the main problems of enforcement in the business tax area are coming up in the context of these big multinational entities which have great resources to engage in tax planning and are located at other parts of the country or the world.    As with the Mobile Workforce bill, the commission is also recognized that there could be an issue here, especially for the smaller businesses. So again, the commission has proposed a solution in the form of a model act that creates a responsibility file only when a business exceeds a certain amount of sales into the state. A few states have enacted this model already. Tennessee did so most recently.    Again, we'll be more than happy to go to the state legislatures and promote this legislation.    Yes, sir.</t>
   </si>
   <si>
@@ -127,6 +166,9 @@
     <t xml:space="preserve">    Mr. Marino. Mr. Crippen?</t>
   </si>
   <si>
+    <t>Crippen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Crippen. Chairman Marino, Ranking Member, so I hear is Mr. Johnson, Members of the Subcommittee; I am pleased to appear on behalf of the National Governors Association.    Mr. Chairman, I want to begin with----</t>
   </si>
   <si>
@@ -376,6 +418,12 @@
     <t>400196</t>
   </si>
   <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Darrell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you, Mr. Chairman.    Every once in a while, we get an opportunity here to quote something and, in this case, I guess I will paraphrase. It does seem like it is Groundhog Day again. And although, those who remember that movie realize that, you know, we keep coming back, we keep having the same discussion, the panel does change, some of you age, others do not. [Laughter.]    Grover, you can take it any way you want on that one. [Laughter.]    So, since we are here again, I am going to try and take a different tack than I did perhaps the last seven or eight times we had a similar hearing on fairness and Constitutionality, and so on. And ask my question briefly and really intended for the public to make sure that the American people get more comfortably with the approaches that Congress is taking.    And Mr. Carpenter, I will probably use you as the Constitutional Strawman. That will make Chris Cox happy.    But, Mr. Crippen, I think you did a good job of it too.    Sales tax is owed by whom?</t>
   </si>
   <si>
@@ -442,6 +490,12 @@
     <t>412505</t>
   </si>
   <si>
+    <t>DelBene</t>
+  </si>
+  <si>
+    <t>Suzan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Mr. Chair. And thanks to all of you for being with us today. I am very happy that we, as a Committee, are taking up state tax issues. In many areas of the law, the digital age has created new complexities and definitely at times illogical results where the law hasn't kept up with the pace of technology or the ways we purchase or live and do business. However, as someone who has a career in business, in technology, and a former revenue director for the State of Washington, I can tell you that from both perspectives some of the bills we are discussing today seem to be misguided.    The physical presence standard in BATSA, for example, would favor large businesses that have a limited physical presence, but a huge volume of economic activity within an individual state. Meanwhile, shifting the state corporate tax burden to main street small businesses along with manufacturing, national resources, and service industries, businesses that create local jobs and pay local property taxes. It is easy to envision an environment under BATSA where the big guys are planning around and avoiding local taxes all the while reaping the benefits of doing businesses in states across the country.    Meanwhile, small businesses that are paying for the benefits for doing business in any given state are put at a competitive disadvantage. And this critical point goes to marketplace fairness, which we have been talking about or the online sales tax issue, which really boils down to ensuring brick and mortar stores that make up the fiber of our communities aren't penalized or put on an unequal playing field without a state online retailers.    I know we've talked about this a bit and, Commissioner Magee, I wondered if you could tell us the economic impacts this not passing legislation like marketplace fairness has on your state? And I also would like you to highlight what that means to local jurisdictions because we talked about state revenues but this is primary revenue source for local jurisdictions that I think is important we highlight the impact there.</t>
   </si>
   <si>
@@ -469,6 +523,12 @@
     <t>412635</t>
   </si>
   <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chair.    Thank you to the panel. I greatly appreciate your time and testimony today.    I am very interested in this area of public policy, having come from small business myself, having seen the stifling effects of regulation on small business in particular. This particular bill, H.R. 2315, the Mobile Workforce bill, addresses the concern that I think is consistent with what we are seeing today with the global workforce and in a way in which we deploy our employees across this country. In many cases, we do it without a real understanding of just how well-traveled our employees are and we have to do whatever we can to ensure that we follow and track our employees, which is an added burden.    I am very interested to hear, and I guess I would like to direct this to Mr. Leaman, we have heard today a discussion that suggests that business is almost the enemy of government. We have heard words like ``evade'' and ``avoid'' tax liability. To me, as a business owner, I am aghast at such a thought, that somehow I have to defend myself from this suggestion that I am liable in some way, shape, or form and my business is in a position to have to respond to that.    A business like Masco, to what extent do you dedicate resources to address these issues when a taxing entity comes in on an audit or some kind of inquiry? What resources do you put forward to have to deal with that to ensure that you can avoid and evade compliant with whatever law there is? Is there uniformity to the way in which they approach this process? I know you have the CAP program in your company, can you explain to us the resources dedicated to what you do?</t>
   </si>
   <si>
@@ -496,6 +556,12 @@
     <t>412561</t>
   </si>
   <si>
+    <t>Jeffries</t>
+  </si>
+  <si>
+    <t>Hakeem</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Mr. Chair.    And I also want to thank the panelists for your presence here today and for the information that you have communicated.    If I could just start with Mr. Norquist, and I thank you for you presence and for the work that you have done in the area of tax equity. We may not always agree on your particular positions but your contribution to the public square has been notable and significant. So I thank you for that.    I wanted to ask about this concept that I think exists among some in the tax equity space, which is that there is this notion that there are donors and there are takers in the tax context. Is that a framework that some people use in the tax equity space?</t>
   </si>
   <si>
@@ -544,6 +610,12 @@
     <t>412653</t>
   </si>
   <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman. Thanks for holding this hearing today. I appreciate all the witnesses being here. I think it has been a very good hearing and discussion about many of the inequities that our current tax system has that is frankly resulting in taxation without representation.    Mr. Lindholm, I would like to start with you. In your written testimony, you discussed the disproportionate costs of the current system on folks who live in states with no personal income tax like the 700,000 Texans that I represent. And I agree with you.    Many of my constituents are severely impacted under the current structure. They have to deal with enormous compliance costs and can't file for refunds or credits in other states. But, some of my colleagues here are still arguing that the Mobile Workforce Act isn't necessary because states offer these offsetting credits for income taxes paid in other jurisdictions.    So my question is: Can you talk about whether or not these offsetting credits do anything to solve the problem of a filing burden for employees and employers?</t>
   </si>
   <si>
@@ -592,6 +664,12 @@
     <t>412636</t>
   </si>
   <si>
+    <t>Trott</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Mr. Chairman.    I want to thank all the witnesses today for being here.    And Commissioner Magee, a couple questions. So you opposed H.R. 2315, correct?</t>
   </si>
   <si>
@@ -665,6 +743,12 @@
   </si>
   <si>
     <t>412531</t>
+  </si>
+  <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Doug</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. I appreciate that and Mr. Norquist, you know. As an old Baptist pastor, I am used to people getting up and walking out whenever they feel like it. So, you know, if you need to, God bless you. Have a great day. You know?    I want echo what my friend from California just said a few minutes ago. How many times are we going keep doing this? You all look great. God bless you. It is good to see you again. We have had these discussions over and over. I am one and I appreciate the Chairman bringing this up because it is now time to mark up, move on, and get something to a new topic. Okay?    But I think at the end of this thing I support the bills that are being discussed today. But I really do want to talk about, for just a moment, one, again I had this conversation at this hearing last Congress about the just, what I believe is just ludicrous 50 W-2s that we can't simplify. This is that and we got into a long conversation and I am not going down that hole again. I just want to say that.    But I appreciate you being here but I do want to talk about one that is not on our list today, and hopefully it will be pretty soon. And that is H.R. 235, the Permanent Internet Tax Freedom Act. It is not before the Committee today and I can't talk about states regulatory and tax authority without first mentioning that bill and encouraging the Subcommittee and the Committee as a whole to quick action on it.    I am a strong supporter and a proud cosponsor of the Permanent Internet Tax Freedom Act introduced by Chairman Goodlatte. The Internet Tax Freedom Act has been extended multiple times and passed the House by voice vote only last Congress. Again, that is what we do a lot of times. Let us kick it down--it is almost like we got to find a can to kick. So let us just find this can and we will kick it again next year.    It will expire on October first of this year. Simply put, we can't let this happen. This would actually permanently prohibit Federal, state, and local governments from imposing taxes on Internet access. I don't think anyone would argue about the enormous impact of the Internet and the access to information and the opportunity that it provides. We need to keep it affordable so that Americans of all backgrounds can access the Internet rather than adding to the already huge burden faced by taxpayers.    It is critical that we make permanent the Internet Tax Freedom Act once and for all to protect consumers and maintain growth and grow access to the Internet to prevent multiple discriminatory taxation, to encourage innovation, and to promote job creation and economic growth.    And before I yield back, I want to say something that was said, and I think Mr. Norquist, I think you said it. I think it has been actually possibly previously implied by several others. Until we get to a position in the Federal Government--I am from the state government level. I worked for 6 years in Georgia on the issues of taxes, the issues of spending.    I am asked all the time by folks: Why can't you just, you know, do a budget. And I think it goes back to the inherent problem that we have. Government does it sort of the backwards way of most businesses. Most businesses will look at a business plan and they say, ``Okay, this is what it is going to cost me if I open this business. It is going to cost me X dollars to break even and then to make a profit.''    Government starts the opposite way around. They say, ``Let us tax and figure out how to spend it.'' And until we get that problem right, states are going to be looking for money, local municipalities are going to be looking for money. We have had a lot of discussion about a bill that is not on the agenda today, marketplace fairness. But I think we have got to get back to--that is what the people of the ninth district expect, and if we need to have an adjustment and we need to talk about the whole aspect of budget, let us do so. But let us remember at the end of the day what is government's purpose, why are we here, and then we can see how the funding fits the purpose instead of our growing purpose in finding a funded for it.    With that, Mr. Chairman, I yield back.</t>
@@ -1019,7 +1103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,7 +1111,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,4853 +1133,5652 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
       <c r="H63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
       <c r="H65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>39</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>50</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>50</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>50</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>25</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>50</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>25</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>25</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>36</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>25</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>36</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>25</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>25</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>119</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G108" t="s">
+        <v>134</v>
+      </c>
       <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>42</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>119</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G110" t="s">
+        <v>134</v>
+      </c>
       <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
+        <v>42</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>119</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G112" t="s">
+        <v>134</v>
+      </c>
       <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>45</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>119</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G114" t="s">
+        <v>134</v>
+      </c>
       <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
+        <v>45</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>119</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G116" t="s">
+        <v>134</v>
+      </c>
       <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G117" t="s">
+        <v>45</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>119</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G118" t="s">
+        <v>134</v>
+      </c>
       <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>50</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>119</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G120" t="s">
+        <v>134</v>
+      </c>
       <c r="H120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>50</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>119</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G122" t="s">
+        <v>134</v>
+      </c>
       <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>42</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>119</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G124" t="s">
+        <v>134</v>
+      </c>
       <c r="H124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>28</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>119</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G126" t="s">
+        <v>134</v>
+      </c>
       <c r="H126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I126" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>28</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
       <c r="H128" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>141</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G129" t="s">
+        <v>158</v>
+      </c>
       <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
+        <v>45</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>141</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G131" t="s">
+        <v>158</v>
+      </c>
       <c r="H131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I131" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G132" t="s">
+        <v>45</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>141</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G133" t="s">
+        <v>158</v>
+      </c>
       <c r="H133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>45</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>141</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G135" t="s">
+        <v>158</v>
+      </c>
       <c r="H135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>150</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G137" t="s">
+        <v>169</v>
+      </c>
       <c r="H137" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I137" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G138" t="s">
+        <v>39</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>150</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G139" t="s">
+        <v>169</v>
+      </c>
       <c r="H139" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I139" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G140" t="s">
+        <v>39</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>150</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G141" t="s">
+        <v>169</v>
+      </c>
       <c r="H141" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>33</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>150</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G143" t="s">
+        <v>169</v>
+      </c>
       <c r="H143" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I143" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
       <c r="H145" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>159</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G146" t="s">
+        <v>180</v>
+      </c>
       <c r="H146" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I146" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G147" t="s">
+        <v>28</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>159</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G148" t="s">
+        <v>180</v>
+      </c>
       <c r="H148" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I148" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>28</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>159</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G150" t="s">
+        <v>180</v>
+      </c>
       <c r="H150" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G151" t="s">
+        <v>28</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>159</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G152" t="s">
+        <v>180</v>
+      </c>
       <c r="H152" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G153" t="s">
+        <v>28</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>159</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G154" t="s">
+        <v>180</v>
+      </c>
       <c r="H154" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I154" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G155" t="s">
+        <v>28</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>159</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G156" t="s">
+        <v>180</v>
+      </c>
       <c r="H156" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I156" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G157" t="s">
+        <v>28</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>159</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G158" t="s">
+        <v>180</v>
+      </c>
       <c r="H158" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I158" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
       <c r="H159" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>159</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G160" t="s">
+        <v>180</v>
+      </c>
       <c r="H160" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I160" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
       <c r="H161" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>175</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G162" t="s">
+        <v>198</v>
+      </c>
       <c r="H162" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I162" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>36</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>175</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G164" t="s">
+        <v>198</v>
+      </c>
       <c r="H164" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I164" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>39</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>175</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G166" t="s">
+        <v>198</v>
+      </c>
       <c r="H166" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I166" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>39</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>175</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G168" t="s">
+        <v>198</v>
+      </c>
       <c r="H168" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I168" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>39</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>175</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G170" t="s">
+        <v>198</v>
+      </c>
       <c r="H170" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I170" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G171" t="s">
+        <v>39</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>175</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G172" t="s">
+        <v>198</v>
+      </c>
       <c r="H172" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I172" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G173" t="s">
+        <v>39</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>175</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G174" t="s">
+        <v>198</v>
+      </c>
       <c r="H174" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I174" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G175" t="s">
+        <v>39</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>175</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G176" t="s">
+        <v>198</v>
+      </c>
       <c r="H176" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I176" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
       <c r="H177" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>191</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G178" t="s">
+        <v>216</v>
+      </c>
       <c r="H178" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I178" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G179" t="s">
+        <v>45</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>191</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G180" t="s">
+        <v>216</v>
+      </c>
       <c r="H180" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I180" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G181" t="s">
+        <v>45</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>191</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G182" t="s">
+        <v>216</v>
+      </c>
       <c r="H182" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I182" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>45</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>191</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G184" t="s">
+        <v>216</v>
+      </c>
       <c r="H184" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I184" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>45</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>191</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G186" t="s">
+        <v>216</v>
+      </c>
       <c r="H186" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I186" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>16</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G187" t="s">
+        <v>45</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>191</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G188" t="s">
+        <v>216</v>
+      </c>
       <c r="H188" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I188" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>16</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G189" t="s">
+        <v>45</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>191</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G190" t="s">
+        <v>216</v>
+      </c>
       <c r="H190" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I190" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>16</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G191" t="s">
+        <v>45</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>191</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G192" t="s">
+        <v>216</v>
+      </c>
       <c r="H192" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I192" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G193" t="s">
+        <v>45</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>191</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G194" t="s">
+        <v>216</v>
+      </c>
       <c r="H194" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I194" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>16</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G195" t="s">
+        <v>45</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>191</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G196" t="s">
+        <v>216</v>
+      </c>
       <c r="H196" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I196" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>13</v>
+      </c>
       <c r="H197" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I197" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>16</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G198" t="s">
+        <v>28</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
       <c r="H199" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>16</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G200" t="s">
+        <v>28</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
       <c r="H201" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>216</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>242</v>
+      </c>
+      <c r="G202" t="s">
+        <v>243</v>
+      </c>
       <c r="H202" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>244</v>
+      </c>
+      <c r="I202" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G203" t="s">
+        <v>13</v>
+      </c>
       <c r="H203" t="s">
-        <v>218</v>
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94807.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94807.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Marino</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -416,6 +425,9 @@
   </si>
   <si>
     <t>400196</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Issa</t>
@@ -1103,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,7 +1123,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,5649 +1148,6044 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>28</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>28</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>28</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>28</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>36</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>39</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>28</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>22</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>33</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>33</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>36</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>36</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>39</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>39</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>42</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>22</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>42</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>45</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>22</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>45</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>48</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>45</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>48</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>25</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>45</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>48</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>50</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>53</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>50</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>53</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>25</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>50</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>53</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>25</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>50</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>53</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>45</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>48</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>25</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>45</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>48</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>36</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>39</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>25</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>28</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>36</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>39</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>25</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>25</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>28</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G108" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>42</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>45</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G110" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>42</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>45</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G112" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H112" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I112" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>45</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G114" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I114" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>45</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>48</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G116" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H116" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I116" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>45</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>48</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G118" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H118" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I118" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>50</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>53</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G120" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H120" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I120" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>50</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>53</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G122" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H122" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I122" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>42</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>45</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G124" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H124" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I124" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J124" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>28</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>31</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G126" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H126" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I126" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s">
-        <v>28</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I128" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G129" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="H129" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I129" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s">
-        <v>45</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>48</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G131" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="H131" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I131" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>45</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>48</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G133" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="H133" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I133" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>45</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>48</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G135" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="H135" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I135" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J135" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G137" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="H137" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I137" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J137" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s">
-        <v>39</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>42</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G139" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="H139" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I139" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J139" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s">
-        <v>39</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>42</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G141" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="H141" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I141" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J141" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>33</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>36</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G143" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="H143" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I143" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J143" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G146" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="H146" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I146" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>185</v>
+      </c>
+      <c r="J146" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>28</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>31</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G148" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="H148" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I148" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>185</v>
+      </c>
+      <c r="J148" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s">
-        <v>28</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G150" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="H150" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I150" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>185</v>
+      </c>
+      <c r="J150" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>21</v>
-      </c>
-      <c r="G151" t="s">
-        <v>28</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>31</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G152" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="H152" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I152" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>185</v>
+      </c>
+      <c r="J152" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" t="s">
-        <v>28</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>31</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G154" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="H154" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I154" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>185</v>
+      </c>
+      <c r="J154" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
-      </c>
-      <c r="G155" t="s">
-        <v>28</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>31</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G156" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="H156" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I156" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>185</v>
+      </c>
+      <c r="J156" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s">
-        <v>28</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>31</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G158" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="H158" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I158" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>185</v>
+      </c>
+      <c r="J158" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G160" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="H160" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I160" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>185</v>
+      </c>
+      <c r="J160" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G162" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="H162" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I162" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J162" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" t="s">
-        <v>36</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>39</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G164" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="H164" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I164" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J164" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" t="s">
-        <v>39</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>42</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G166" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="H166" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I166" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J166" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s">
-        <v>39</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>42</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G168" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="H168" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I168" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J168" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
-      </c>
-      <c r="G169" t="s">
-        <v>39</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>42</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G170" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="H170" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I170" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J170" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="G171" t="s">
-        <v>39</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>42</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G172" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="H172" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I172" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J172" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s">
-        <v>39</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>42</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G174" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="H174" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I174" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J174" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s">
-        <v>39</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>42</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G176" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="H176" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I176" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J176" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I177" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J177" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G178" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="H178" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I178" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J178" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
-      </c>
-      <c r="G179" t="s">
-        <v>45</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>48</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G180" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="H180" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I180" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J180" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s">
-        <v>45</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>48</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G182" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="H182" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I182" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J182" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
-      </c>
-      <c r="G183" t="s">
-        <v>45</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>48</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G184" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="H184" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I184" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J184" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" t="s">
-        <v>45</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>48</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G186" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="H186" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I186" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J186" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>21</v>
-      </c>
-      <c r="G187" t="s">
-        <v>45</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>48</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G188" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="H188" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I188" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J188" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>21</v>
-      </c>
-      <c r="G189" t="s">
-        <v>45</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>48</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G190" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="H190" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I190" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J190" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>21</v>
-      </c>
-      <c r="G191" t="s">
-        <v>45</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>48</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G192" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="H192" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I192" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J192" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>21</v>
-      </c>
-      <c r="G193" t="s">
-        <v>45</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>48</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G194" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="H194" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I194" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J194" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
-      </c>
-      <c r="G195" t="s">
-        <v>45</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>48</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G196" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="H196" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I196" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J196" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I197" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J197" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>21</v>
-      </c>
-      <c r="G198" t="s">
-        <v>28</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>31</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I199" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J199" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>21</v>
-      </c>
-      <c r="G200" t="s">
-        <v>28</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>31</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I201" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J201" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G202" t="s">
-        <v>243</v>
+        <v>137</v>
       </c>
       <c r="H202" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I202" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>248</v>
+      </c>
+      <c r="J202" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I203" t="s">
-        <v>246</v>
+        <v>16</v>
+      </c>
+      <c r="J203" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
